--- a/数据表/Playerlevel.xlsx
+++ b/数据表/Playerlevel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="t_Playerlevel" sheetId="1" r:id="rId1"/>
@@ -31,12 +31,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
-    <t>//角色等级</t>
-  </si>
-  <si>
-    <t>升到下一级经验</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -44,6 +38,12 @@
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>//角色等级</t>
+  </si>
+  <si>
+    <t>升到下一级经验</t>
   </si>
 </sst>
 </file>
@@ -977,7 +977,7 @@
   <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -999,12 +999,12 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
